--- a/JSheet/test.xlsx
+++ b/JSheet/test.xlsx
@@ -52,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,6 +74,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,10 +149,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A2:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -160,35 +162,35 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>9999999999</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="ram@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="ram@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
